--- a/N2C/点検請求管理N2C_v1.xlsx
+++ b/N2C/点検請求管理N2C_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\nr001\N2C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D0CAE9-A784-4140-97D8-1A119C330686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21373C0A-A5FC-41AB-82AF-79BEBEDB00E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="960" windowWidth="24975" windowHeight="14385" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="図" sheetId="10" r:id="rId1"/>
@@ -5536,6 +5536,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5561,15 +5588,6 @@
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5617,24 +5635,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5665,14 +5665,56 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="18" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="23" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="18" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="39" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="36" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5680,10 +5722,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="33" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5695,15 +5737,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5712,24 +5745,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="39" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="23" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="36" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5740,38 +5755,23 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="46" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="33" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="18" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -15246,8 +15246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2956CEE4-364D-4D07-BA3C-AA2B9531EC11}">
   <dimension ref="A1:AR702"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView showGridLines="0" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -15262,10 +15262,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="31.15" customHeight="1">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="232" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="201"/>
+      <c r="B1" s="232"/>
     </row>
     <row r="2" spans="1:40" ht="13.9" customHeight="1"/>
     <row r="3" spans="1:40" ht="16.899999999999999" customHeight="1">
@@ -15277,176 +15277,176 @@
       </c>
     </row>
     <row r="4" spans="1:40" ht="16.149999999999999" customHeight="1">
-      <c r="B4" s="202" t="s">
+      <c r="B4" s="233" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="204" t="s">
+      <c r="C4" s="218" t="s">
         <v>218</v>
       </c>
-      <c r="D4" s="206" t="s">
+      <c r="D4" s="235" t="s">
         <v>219</v>
       </c>
-      <c r="E4" s="208" t="s">
+      <c r="E4" s="222" t="s">
         <v>220</v>
       </c>
-      <c r="F4" s="210" t="s">
+      <c r="F4" s="224" t="s">
         <v>221</v>
       </c>
-      <c r="G4" s="211" t="s">
+      <c r="G4" s="215" t="s">
         <v>222</v>
       </c>
-      <c r="H4" s="211" t="s">
+      <c r="H4" s="215" t="s">
         <v>223</v>
       </c>
-      <c r="I4" s="211" t="s">
+      <c r="I4" s="215" t="s">
         <v>224</v>
       </c>
-      <c r="J4" s="211" t="s">
+      <c r="J4" s="215" t="s">
         <v>225</v>
       </c>
-      <c r="K4" s="211" t="s">
+      <c r="K4" s="215" t="s">
         <v>226</v>
       </c>
-      <c r="L4" s="211" t="s">
+      <c r="L4" s="215" t="s">
         <v>227</v>
       </c>
-      <c r="M4" s="211" t="s">
+      <c r="M4" s="215" t="s">
         <v>228</v>
       </c>
-      <c r="N4" s="211" t="s">
+      <c r="N4" s="215" t="s">
         <v>229</v>
       </c>
-      <c r="O4" s="211" t="s">
+      <c r="O4" s="215" t="s">
         <v>230</v>
       </c>
-      <c r="P4" s="211" t="s">
+      <c r="P4" s="215" t="s">
         <v>231</v>
       </c>
-      <c r="Q4" s="211" t="s">
+      <c r="Q4" s="215" t="s">
         <v>232</v>
       </c>
-      <c r="R4" s="211" t="s">
+      <c r="R4" s="215" t="s">
         <v>233</v>
       </c>
-      <c r="S4" s="211" t="s">
+      <c r="S4" s="215" t="s">
         <v>234</v>
       </c>
-      <c r="T4" s="211" t="s">
+      <c r="T4" s="215" t="s">
         <v>235</v>
       </c>
-      <c r="U4" s="211" t="s">
+      <c r="U4" s="215" t="s">
         <v>236</v>
       </c>
-      <c r="V4" s="211" t="s">
+      <c r="V4" s="215" t="s">
         <v>237</v>
       </c>
-      <c r="W4" s="211" t="s">
+      <c r="W4" s="215" t="s">
         <v>238</v>
       </c>
-      <c r="X4" s="211" t="s">
+      <c r="X4" s="215" t="s">
         <v>239</v>
       </c>
-      <c r="Y4" s="211" t="s">
+      <c r="Y4" s="215" t="s">
         <v>240</v>
       </c>
-      <c r="Z4" s="211" t="s">
+      <c r="Z4" s="215" t="s">
         <v>241</v>
       </c>
-      <c r="AA4" s="211" t="s">
+      <c r="AA4" s="215" t="s">
         <v>242</v>
       </c>
-      <c r="AB4" s="211" t="s">
+      <c r="AB4" s="215" t="s">
         <v>243</v>
       </c>
-      <c r="AC4" s="211" t="s">
+      <c r="AC4" s="215" t="s">
         <v>244</v>
       </c>
-      <c r="AD4" s="211" t="s">
+      <c r="AD4" s="215" t="s">
         <v>245</v>
       </c>
-      <c r="AE4" s="211" t="s">
+      <c r="AE4" s="215" t="s">
         <v>246</v>
       </c>
-      <c r="AF4" s="211" t="s">
+      <c r="AF4" s="215" t="s">
         <v>247</v>
       </c>
-      <c r="AG4" s="211" t="s">
+      <c r="AG4" s="215" t="s">
         <v>248</v>
       </c>
-      <c r="AH4" s="211" t="s">
+      <c r="AH4" s="215" t="s">
         <v>249</v>
       </c>
-      <c r="AI4" s="211" t="s">
+      <c r="AI4" s="215" t="s">
         <v>250</v>
       </c>
-      <c r="AJ4" s="211" t="s">
+      <c r="AJ4" s="215" t="s">
         <v>251</v>
       </c>
-      <c r="AK4" s="211" t="s">
+      <c r="AK4" s="215" t="s">
         <v>252</v>
       </c>
-      <c r="AL4" s="211" t="s">
+      <c r="AL4" s="215" t="s">
         <v>253</v>
       </c>
-      <c r="AM4" s="211" t="s">
+      <c r="AM4" s="215" t="s">
         <v>254</v>
       </c>
-      <c r="AN4" s="211" t="s">
+      <c r="AN4" s="215" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="16.149999999999999" customHeight="1" thickBot="1">
-      <c r="B5" s="203"/>
-      <c r="C5" s="205"/>
-      <c r="D5" s="207"/>
-      <c r="E5" s="209"/>
-      <c r="F5" s="211"/>
-      <c r="G5" s="212"/>
-      <c r="H5" s="212"/>
-      <c r="I5" s="212"/>
-      <c r="J5" s="212"/>
-      <c r="K5" s="212"/>
-      <c r="L5" s="212"/>
-      <c r="M5" s="212"/>
-      <c r="N5" s="212"/>
-      <c r="O5" s="212"/>
-      <c r="P5" s="212"/>
-      <c r="Q5" s="212"/>
-      <c r="R5" s="212"/>
-      <c r="S5" s="212"/>
-      <c r="T5" s="212"/>
-      <c r="U5" s="212"/>
-      <c r="V5" s="212"/>
-      <c r="W5" s="212"/>
-      <c r="X5" s="212"/>
-      <c r="Y5" s="212"/>
-      <c r="Z5" s="212"/>
-      <c r="AA5" s="212"/>
-      <c r="AB5" s="212"/>
-      <c r="AC5" s="212"/>
-      <c r="AD5" s="212"/>
-      <c r="AE5" s="212"/>
-      <c r="AF5" s="212"/>
-      <c r="AG5" s="212"/>
-      <c r="AH5" s="212"/>
-      <c r="AI5" s="212"/>
-      <c r="AJ5" s="212"/>
-      <c r="AK5" s="212"/>
-      <c r="AL5" s="213"/>
-      <c r="AM5" s="213"/>
-      <c r="AN5" s="213"/>
+      <c r="B5" s="234"/>
+      <c r="C5" s="219"/>
+      <c r="D5" s="236"/>
+      <c r="E5" s="223"/>
+      <c r="F5" s="215"/>
+      <c r="G5" s="216"/>
+      <c r="H5" s="216"/>
+      <c r="I5" s="216"/>
+      <c r="J5" s="216"/>
+      <c r="K5" s="216"/>
+      <c r="L5" s="216"/>
+      <c r="M5" s="216"/>
+      <c r="N5" s="216"/>
+      <c r="O5" s="216"/>
+      <c r="P5" s="216"/>
+      <c r="Q5" s="216"/>
+      <c r="R5" s="216"/>
+      <c r="S5" s="216"/>
+      <c r="T5" s="216"/>
+      <c r="U5" s="216"/>
+      <c r="V5" s="216"/>
+      <c r="W5" s="216"/>
+      <c r="X5" s="216"/>
+      <c r="Y5" s="216"/>
+      <c r="Z5" s="216"/>
+      <c r="AA5" s="216"/>
+      <c r="AB5" s="216"/>
+      <c r="AC5" s="216"/>
+      <c r="AD5" s="216"/>
+      <c r="AE5" s="216"/>
+      <c r="AF5" s="216"/>
+      <c r="AG5" s="216"/>
+      <c r="AH5" s="216"/>
+      <c r="AI5" s="216"/>
+      <c r="AJ5" s="216"/>
+      <c r="AK5" s="216"/>
+      <c r="AL5" s="231"/>
+      <c r="AM5" s="231"/>
+      <c r="AN5" s="231"/>
     </row>
     <row r="6" spans="1:40" ht="19.899999999999999" customHeight="1">
-      <c r="B6" s="214" t="s">
+      <c r="B6" s="225" t="s">
         <v>256</v>
       </c>
       <c r="C6" s="86" t="s">
         <v>257</v>
       </c>
-      <c r="D6" s="217">
+      <c r="D6" s="208">
         <v>1</v>
       </c>
-      <c r="E6" s="220" t="s">
+      <c r="E6" s="210" t="s">
         <v>258</v>
       </c>
       <c r="F6" s="89" t="s">
@@ -15536,12 +15536,12 @@
       <c r="AN6" s="91"/>
     </row>
     <row r="7" spans="1:40" ht="19.899999999999999" customHeight="1">
-      <c r="B7" s="215"/>
+      <c r="B7" s="226"/>
       <c r="C7" s="92" t="s">
         <v>261</v>
       </c>
-      <c r="D7" s="218"/>
-      <c r="E7" s="221"/>
+      <c r="D7" s="201"/>
+      <c r="E7" s="203"/>
       <c r="F7" s="95" t="s">
         <v>262</v>
       </c>
@@ -15629,12 +15629,12 @@
       <c r="AN7" s="98"/>
     </row>
     <row r="8" spans="1:40" ht="19.899999999999999" customHeight="1">
-      <c r="B8" s="215"/>
+      <c r="B8" s="226"/>
       <c r="C8" s="92" t="s">
         <v>263</v>
       </c>
-      <c r="D8" s="218"/>
-      <c r="E8" s="221"/>
+      <c r="D8" s="201"/>
+      <c r="E8" s="203"/>
       <c r="F8" s="95" t="s">
         <v>262</v>
       </c>
@@ -15722,12 +15722,12 @@
       <c r="AN8" s="98"/>
     </row>
     <row r="9" spans="1:40" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="B9" s="215"/>
+      <c r="B9" s="226"/>
       <c r="C9" s="99" t="s">
         <v>264</v>
       </c>
-      <c r="D9" s="219"/>
-      <c r="E9" s="222"/>
+      <c r="D9" s="209"/>
+      <c r="E9" s="211"/>
       <c r="F9" s="102" t="s">
         <v>262</v>
       </c>
@@ -15815,7 +15815,7 @@
       <c r="AN9" s="105"/>
     </row>
     <row r="10" spans="1:40" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="B10" s="216"/>
+      <c r="B10" s="227"/>
       <c r="C10" s="106" t="s">
         <v>265</v>
       </c>
@@ -15914,16 +15914,16 @@
       <c r="AN10" s="111"/>
     </row>
     <row r="11" spans="1:40" ht="19.899999999999999" customHeight="1">
-      <c r="B11" s="214" t="s">
+      <c r="B11" s="225" t="s">
         <v>267</v>
       </c>
       <c r="C11" s="86" t="s">
         <v>268</v>
       </c>
-      <c r="D11" s="217">
+      <c r="D11" s="208">
         <v>3</v>
       </c>
-      <c r="E11" s="220" t="s">
+      <c r="E11" s="210" t="s">
         <v>269</v>
       </c>
       <c r="F11" s="112" t="s">
@@ -16009,12 +16009,12 @@
       <c r="AN11" s="91"/>
     </row>
     <row r="12" spans="1:40" ht="19.899999999999999" customHeight="1">
-      <c r="B12" s="215"/>
+      <c r="B12" s="226"/>
       <c r="C12" s="92" t="s">
         <v>270</v>
       </c>
-      <c r="D12" s="218"/>
-      <c r="E12" s="221"/>
+      <c r="D12" s="201"/>
+      <c r="E12" s="203"/>
       <c r="F12" s="114" t="s">
         <v>271</v>
       </c>
@@ -16098,12 +16098,12 @@
       <c r="AN12" s="98"/>
     </row>
     <row r="13" spans="1:40" ht="19.899999999999999" customHeight="1">
-      <c r="B13" s="215"/>
+      <c r="B13" s="226"/>
       <c r="C13" s="92" t="s">
         <v>272</v>
       </c>
-      <c r="D13" s="218"/>
-      <c r="E13" s="221"/>
+      <c r="D13" s="201"/>
+      <c r="E13" s="203"/>
       <c r="F13" s="114" t="s">
         <v>271</v>
       </c>
@@ -16187,12 +16187,12 @@
       <c r="AN13" s="98"/>
     </row>
     <row r="14" spans="1:40" ht="19.899999999999999" customHeight="1">
-      <c r="B14" s="215"/>
+      <c r="B14" s="226"/>
       <c r="C14" s="92" t="s">
         <v>273</v>
       </c>
-      <c r="D14" s="218"/>
-      <c r="E14" s="221"/>
+      <c r="D14" s="201"/>
+      <c r="E14" s="203"/>
       <c r="F14" s="114" t="s">
         <v>271</v>
       </c>
@@ -16276,12 +16276,12 @@
       <c r="AN14" s="98"/>
     </row>
     <row r="15" spans="1:40" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="B15" s="215"/>
+      <c r="B15" s="226"/>
       <c r="C15" s="99" t="s">
         <v>274</v>
       </c>
-      <c r="D15" s="219"/>
-      <c r="E15" s="222"/>
+      <c r="D15" s="209"/>
+      <c r="E15" s="211"/>
       <c r="F15" s="115" t="s">
         <v>271</v>
       </c>
@@ -16365,7 +16365,7 @@
       <c r="AN15" s="105"/>
     </row>
     <row r="16" spans="1:40" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="B16" s="215"/>
+      <c r="B16" s="226"/>
       <c r="C16" s="106" t="s">
         <v>275</v>
       </c>
@@ -16460,7 +16460,7 @@
       <c r="AN16" s="119"/>
     </row>
     <row r="17" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="B17" s="215"/>
+      <c r="B17" s="226"/>
       <c r="C17" s="120" t="s">
         <v>277</v>
       </c>
@@ -16551,7 +16551,7 @@
       <c r="AN17" s="111"/>
     </row>
     <row r="18" spans="2:40" ht="19.899999999999999" customHeight="1">
-      <c r="B18" s="215"/>
+      <c r="B18" s="226"/>
       <c r="C18" s="86" t="s">
         <v>279</v>
       </c>
@@ -16630,7 +16630,7 @@
       <c r="AN18" s="91"/>
     </row>
     <row r="19" spans="2:40" ht="19.899999999999999" customHeight="1">
-      <c r="B19" s="215"/>
+      <c r="B19" s="226"/>
       <c r="C19" s="92" t="s">
         <v>280</v>
       </c>
@@ -16713,7 +16713,7 @@
       <c r="AN19" s="98"/>
     </row>
     <row r="20" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="B20" s="215"/>
+      <c r="B20" s="226"/>
       <c r="C20" s="99" t="s">
         <v>282</v>
       </c>
@@ -16792,16 +16792,16 @@
       <c r="AN20" s="105"/>
     </row>
     <row r="21" spans="2:40" ht="19.899999999999999" customHeight="1">
-      <c r="B21" s="226" t="s">
+      <c r="B21" s="205" t="s">
         <v>283</v>
       </c>
       <c r="C21" s="86" t="s">
         <v>284</v>
       </c>
-      <c r="D21" s="217">
+      <c r="D21" s="208">
         <v>7</v>
       </c>
-      <c r="E21" s="220" t="s">
+      <c r="E21" s="210" t="s">
         <v>285</v>
       </c>
       <c r="F21" s="90"/>
@@ -16873,12 +16873,12 @@
       <c r="AN21" s="91"/>
     </row>
     <row r="22" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="B22" s="227"/>
+      <c r="B22" s="206"/>
       <c r="C22" s="99" t="s">
         <v>286</v>
       </c>
-      <c r="D22" s="219"/>
-      <c r="E22" s="222"/>
+      <c r="D22" s="209"/>
+      <c r="E22" s="211"/>
       <c r="F22" s="103"/>
       <c r="G22" s="103"/>
       <c r="H22" s="115" t="s">
@@ -16948,16 +16948,16 @@
       <c r="AN22" s="105"/>
     </row>
     <row r="23" spans="2:40" ht="19.899999999999999" customHeight="1">
-      <c r="B23" s="214" t="s">
+      <c r="B23" s="225" t="s">
         <v>287</v>
       </c>
       <c r="C23" s="86" t="s">
         <v>288</v>
       </c>
-      <c r="D23" s="217">
+      <c r="D23" s="208">
         <v>8</v>
       </c>
-      <c r="E23" s="220" t="s">
+      <c r="E23" s="210" t="s">
         <v>289</v>
       </c>
       <c r="F23" s="89" t="s">
@@ -17041,12 +17041,12 @@
       <c r="AN23" s="91"/>
     </row>
     <row r="24" spans="2:40" ht="19.899999999999999" customHeight="1">
-      <c r="B24" s="215"/>
+      <c r="B24" s="226"/>
       <c r="C24" s="92" t="s">
         <v>291</v>
       </c>
-      <c r="D24" s="218"/>
-      <c r="E24" s="221"/>
+      <c r="D24" s="201"/>
+      <c r="E24" s="203"/>
       <c r="F24" s="114" t="s">
         <v>271</v>
       </c>
@@ -17128,12 +17128,12 @@
       <c r="AN24" s="98"/>
     </row>
     <row r="25" spans="2:40" ht="19.899999999999999" customHeight="1">
-      <c r="B25" s="215"/>
+      <c r="B25" s="226"/>
       <c r="C25" s="92" t="s">
         <v>293</v>
       </c>
-      <c r="D25" s="218"/>
-      <c r="E25" s="221"/>
+      <c r="D25" s="201"/>
+      <c r="E25" s="203"/>
       <c r="F25" s="114" t="s">
         <v>271</v>
       </c>
@@ -17215,12 +17215,12 @@
       <c r="AN25" s="98"/>
     </row>
     <row r="26" spans="2:40" ht="19.899999999999999" customHeight="1">
-      <c r="B26" s="215"/>
+      <c r="B26" s="226"/>
       <c r="C26" s="92" t="s">
         <v>294</v>
       </c>
-      <c r="D26" s="218"/>
-      <c r="E26" s="221"/>
+      <c r="D26" s="201"/>
+      <c r="E26" s="203"/>
       <c r="F26" s="114" t="s">
         <v>271</v>
       </c>
@@ -17302,12 +17302,12 @@
       <c r="AN26" s="98"/>
     </row>
     <row r="27" spans="2:40" ht="19.899999999999999" customHeight="1">
-      <c r="B27" s="215"/>
+      <c r="B27" s="226"/>
       <c r="C27" s="92" t="s">
         <v>295</v>
       </c>
-      <c r="D27" s="218"/>
-      <c r="E27" s="221"/>
+      <c r="D27" s="201"/>
+      <c r="E27" s="203"/>
       <c r="F27" s="114" t="s">
         <v>271</v>
       </c>
@@ -17389,12 +17389,12 @@
       <c r="AN27" s="98"/>
     </row>
     <row r="28" spans="2:40" ht="19.899999999999999" customHeight="1">
-      <c r="B28" s="215"/>
+      <c r="B28" s="226"/>
       <c r="C28" s="92" t="s">
         <v>296</v>
       </c>
-      <c r="D28" s="218"/>
-      <c r="E28" s="221"/>
+      <c r="D28" s="201"/>
+      <c r="E28" s="203"/>
       <c r="F28" s="114" t="s">
         <v>271</v>
       </c>
@@ -17476,12 +17476,12 @@
       <c r="AN28" s="98"/>
     </row>
     <row r="29" spans="2:40" ht="19.899999999999999" customHeight="1">
-      <c r="B29" s="215"/>
+      <c r="B29" s="226"/>
       <c r="C29" s="92" t="s">
         <v>297</v>
       </c>
-      <c r="D29" s="218"/>
-      <c r="E29" s="221"/>
+      <c r="D29" s="201"/>
+      <c r="E29" s="203"/>
       <c r="F29" s="114" t="s">
         <v>271</v>
       </c>
@@ -17563,12 +17563,12 @@
       <c r="AN29" s="98"/>
     </row>
     <row r="30" spans="2:40" ht="19.899999999999999" customHeight="1">
-      <c r="B30" s="215"/>
+      <c r="B30" s="226"/>
       <c r="C30" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="D30" s="218"/>
-      <c r="E30" s="221"/>
+      <c r="D30" s="201"/>
+      <c r="E30" s="203"/>
       <c r="F30" s="114" t="s">
         <v>271</v>
       </c>
@@ -17650,12 +17650,12 @@
       <c r="AN30" s="98"/>
     </row>
     <row r="31" spans="2:40" ht="19.899999999999999" customHeight="1">
-      <c r="B31" s="215"/>
+      <c r="B31" s="226"/>
       <c r="C31" s="92" t="s">
         <v>299</v>
       </c>
-      <c r="D31" s="218"/>
-      <c r="E31" s="221"/>
+      <c r="D31" s="201"/>
+      <c r="E31" s="203"/>
       <c r="F31" s="114" t="s">
         <v>271</v>
       </c>
@@ -17737,12 +17737,12 @@
       <c r="AN31" s="98"/>
     </row>
     <row r="32" spans="2:40" ht="19.899999999999999" customHeight="1">
-      <c r="B32" s="215"/>
+      <c r="B32" s="226"/>
       <c r="C32" s="92" t="s">
         <v>300</v>
       </c>
-      <c r="D32" s="218"/>
-      <c r="E32" s="221"/>
+      <c r="D32" s="201"/>
+      <c r="E32" s="203"/>
       <c r="F32" s="114" t="s">
         <v>271</v>
       </c>
@@ -17824,12 +17824,12 @@
       <c r="AN32" s="98"/>
     </row>
     <row r="33" spans="2:44" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="B33" s="215"/>
+      <c r="B33" s="226"/>
       <c r="C33" s="99" t="s">
         <v>301</v>
       </c>
-      <c r="D33" s="219"/>
-      <c r="E33" s="222"/>
+      <c r="D33" s="209"/>
+      <c r="E33" s="211"/>
       <c r="F33" s="115" t="s">
         <v>271</v>
       </c>
@@ -17911,7 +17911,7 @@
       <c r="AN33" s="105"/>
     </row>
     <row r="34" spans="2:44" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="B34" s="215"/>
+      <c r="B34" s="226"/>
       <c r="C34" s="120" t="s">
         <v>302</v>
       </c>
@@ -18008,22 +18008,22 @@
       <c r="AN34" s="123" t="s">
         <v>262</v>
       </c>
-      <c r="AO34" s="223" t="s">
+      <c r="AO34" s="228" t="s">
         <v>304</v>
       </c>
-      <c r="AP34" s="223"/>
-      <c r="AQ34" s="223"/>
-      <c r="AR34" s="223"/>
+      <c r="AP34" s="228"/>
+      <c r="AQ34" s="228"/>
+      <c r="AR34" s="228"/>
     </row>
     <row r="35" spans="2:44" ht="19.899999999999999" customHeight="1">
-      <c r="B35" s="215"/>
+      <c r="B35" s="226"/>
       <c r="C35" s="124" t="s">
         <v>305</v>
       </c>
-      <c r="D35" s="224">
+      <c r="D35" s="229">
         <v>10</v>
       </c>
-      <c r="E35" s="220" t="s">
+      <c r="E35" s="210" t="s">
         <v>306</v>
       </c>
       <c r="F35" s="89" t="s">
@@ -18107,18 +18107,18 @@
       <c r="AL35" s="90"/>
       <c r="AM35" s="90"/>
       <c r="AN35" s="91"/>
-      <c r="AO35" s="223"/>
-      <c r="AP35" s="223"/>
-      <c r="AQ35" s="223"/>
-      <c r="AR35" s="223"/>
+      <c r="AO35" s="228"/>
+      <c r="AP35" s="228"/>
+      <c r="AQ35" s="228"/>
+      <c r="AR35" s="228"/>
     </row>
     <row r="36" spans="2:44" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="B36" s="216"/>
+      <c r="B36" s="227"/>
       <c r="C36" s="125" t="s">
         <v>307</v>
       </c>
-      <c r="D36" s="225"/>
-      <c r="E36" s="222"/>
+      <c r="D36" s="230"/>
+      <c r="E36" s="211"/>
       <c r="F36" s="115" t="s">
         <v>271</v>
       </c>
@@ -18200,10 +18200,10 @@
       <c r="AL36" s="103"/>
       <c r="AM36" s="103"/>
       <c r="AN36" s="105"/>
-      <c r="AO36" s="223"/>
-      <c r="AP36" s="223"/>
-      <c r="AQ36" s="223"/>
-      <c r="AR36" s="223"/>
+      <c r="AO36" s="228"/>
+      <c r="AP36" s="228"/>
+      <c r="AQ36" s="228"/>
+      <c r="AR36" s="228"/>
     </row>
     <row r="37" spans="2:44" ht="16.149999999999999" customHeight="1"/>
     <row r="38" spans="2:44" ht="16.149999999999999" customHeight="1">
@@ -18212,160 +18212,160 @@
       </c>
     </row>
     <row r="39" spans="2:44" ht="16.149999999999999" customHeight="1">
-      <c r="B39" s="204" t="s">
+      <c r="B39" s="218" t="s">
         <v>217</v>
       </c>
-      <c r="C39" s="204" t="s">
+      <c r="C39" s="218" t="s">
         <v>218</v>
       </c>
-      <c r="D39" s="228" t="s">
+      <c r="D39" s="220" t="s">
         <v>219</v>
       </c>
-      <c r="E39" s="208" t="s">
+      <c r="E39" s="222" t="s">
         <v>220</v>
       </c>
-      <c r="F39" s="210" t="s">
+      <c r="F39" s="224" t="s">
         <v>221</v>
       </c>
-      <c r="G39" s="211" t="s">
+      <c r="G39" s="215" t="s">
         <v>222</v>
       </c>
-      <c r="H39" s="211" t="s">
+      <c r="H39" s="215" t="s">
         <v>223</v>
       </c>
-      <c r="I39" s="211" t="s">
+      <c r="I39" s="215" t="s">
         <v>224</v>
       </c>
-      <c r="J39" s="211" t="s">
+      <c r="J39" s="215" t="s">
         <v>225</v>
       </c>
-      <c r="K39" s="211" t="s">
+      <c r="K39" s="215" t="s">
         <v>226</v>
       </c>
-      <c r="L39" s="211" t="s">
+      <c r="L39" s="215" t="s">
         <v>227</v>
       </c>
-      <c r="M39" s="211" t="s">
+      <c r="M39" s="215" t="s">
         <v>228</v>
       </c>
-      <c r="N39" s="211" t="s">
+      <c r="N39" s="215" t="s">
         <v>229</v>
       </c>
-      <c r="O39" s="211" t="s">
+      <c r="O39" s="215" t="s">
         <v>230</v>
       </c>
-      <c r="P39" s="211" t="s">
+      <c r="P39" s="215" t="s">
         <v>231</v>
       </c>
-      <c r="Q39" s="211" t="s">
+      <c r="Q39" s="215" t="s">
         <v>232</v>
       </c>
-      <c r="R39" s="211" t="s">
+      <c r="R39" s="215" t="s">
         <v>233</v>
       </c>
-      <c r="S39" s="211" t="s">
+      <c r="S39" s="215" t="s">
         <v>234</v>
       </c>
-      <c r="T39" s="211" t="s">
+      <c r="T39" s="215" t="s">
         <v>235</v>
       </c>
-      <c r="U39" s="211" t="s">
+      <c r="U39" s="215" t="s">
         <v>236</v>
       </c>
-      <c r="V39" s="211" t="s">
+      <c r="V39" s="215" t="s">
         <v>237</v>
       </c>
-      <c r="W39" s="211" t="s">
+      <c r="W39" s="215" t="s">
         <v>238</v>
       </c>
-      <c r="X39" s="211" t="s">
+      <c r="X39" s="215" t="s">
         <v>239</v>
       </c>
-      <c r="Y39" s="211" t="s">
+      <c r="Y39" s="215" t="s">
         <v>309</v>
       </c>
-      <c r="Z39" s="211" t="s">
+      <c r="Z39" s="215" t="s">
         <v>310</v>
       </c>
-      <c r="AA39" s="211" t="s">
+      <c r="AA39" s="215" t="s">
         <v>311</v>
       </c>
-      <c r="AB39" s="211" t="s">
+      <c r="AB39" s="215" t="s">
         <v>240</v>
       </c>
-      <c r="AC39" s="211" t="s">
+      <c r="AC39" s="215" t="s">
         <v>241</v>
       </c>
-      <c r="AD39" s="211" t="s">
+      <c r="AD39" s="215" t="s">
         <v>242</v>
       </c>
-      <c r="AE39" s="211" t="s">
+      <c r="AE39" s="215" t="s">
         <v>243</v>
       </c>
-      <c r="AF39" s="211" t="s">
+      <c r="AF39" s="215" t="s">
         <v>244</v>
       </c>
-      <c r="AG39" s="211" t="s">
+      <c r="AG39" s="215" t="s">
         <v>245</v>
       </c>
-      <c r="AH39" s="211" t="s">
+      <c r="AH39" s="215" t="s">
         <v>246</v>
       </c>
-      <c r="AI39" s="211" t="s">
+      <c r="AI39" s="215" t="s">
         <v>247</v>
       </c>
-      <c r="AJ39" s="211" t="s">
+      <c r="AJ39" s="215" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="40" spans="2:44" ht="16.149999999999999" customHeight="1" thickBot="1">
-      <c r="B40" s="205"/>
-      <c r="C40" s="205"/>
-      <c r="D40" s="229"/>
-      <c r="E40" s="209"/>
-      <c r="F40" s="211"/>
-      <c r="G40" s="212"/>
-      <c r="H40" s="212"/>
-      <c r="I40" s="212"/>
-      <c r="J40" s="212"/>
-      <c r="K40" s="212"/>
-      <c r="L40" s="212"/>
-      <c r="M40" s="212"/>
-      <c r="N40" s="212"/>
-      <c r="O40" s="212"/>
-      <c r="P40" s="212"/>
-      <c r="Q40" s="212"/>
-      <c r="R40" s="212"/>
-      <c r="S40" s="212"/>
-      <c r="T40" s="212"/>
-      <c r="U40" s="212"/>
-      <c r="V40" s="212"/>
-      <c r="W40" s="212"/>
-      <c r="X40" s="212"/>
-      <c r="Y40" s="212"/>
-      <c r="Z40" s="212"/>
-      <c r="AA40" s="212"/>
-      <c r="AB40" s="212"/>
-      <c r="AC40" s="212"/>
-      <c r="AD40" s="212"/>
-      <c r="AE40" s="212"/>
-      <c r="AF40" s="212"/>
-      <c r="AG40" s="212"/>
-      <c r="AH40" s="212"/>
-      <c r="AI40" s="212"/>
-      <c r="AJ40" s="212"/>
+      <c r="B40" s="219"/>
+      <c r="C40" s="219"/>
+      <c r="D40" s="221"/>
+      <c r="E40" s="223"/>
+      <c r="F40" s="215"/>
+      <c r="G40" s="216"/>
+      <c r="H40" s="216"/>
+      <c r="I40" s="216"/>
+      <c r="J40" s="216"/>
+      <c r="K40" s="216"/>
+      <c r="L40" s="216"/>
+      <c r="M40" s="216"/>
+      <c r="N40" s="216"/>
+      <c r="O40" s="216"/>
+      <c r="P40" s="216"/>
+      <c r="Q40" s="216"/>
+      <c r="R40" s="216"/>
+      <c r="S40" s="216"/>
+      <c r="T40" s="216"/>
+      <c r="U40" s="216"/>
+      <c r="V40" s="216"/>
+      <c r="W40" s="216"/>
+      <c r="X40" s="216"/>
+      <c r="Y40" s="216"/>
+      <c r="Z40" s="216"/>
+      <c r="AA40" s="216"/>
+      <c r="AB40" s="216"/>
+      <c r="AC40" s="216"/>
+      <c r="AD40" s="216"/>
+      <c r="AE40" s="216"/>
+      <c r="AF40" s="216"/>
+      <c r="AG40" s="216"/>
+      <c r="AH40" s="216"/>
+      <c r="AI40" s="216"/>
+      <c r="AJ40" s="216"/>
     </row>
     <row r="41" spans="2:44" ht="19.899999999999999" customHeight="1">
-      <c r="B41" s="226" t="s">
+      <c r="B41" s="205" t="s">
         <v>312</v>
       </c>
       <c r="C41" s="86" t="s">
         <v>313</v>
       </c>
-      <c r="D41" s="217">
+      <c r="D41" s="208">
         <v>11</v>
       </c>
-      <c r="E41" s="220" t="s">
+      <c r="E41" s="210" t="s">
         <v>314</v>
       </c>
       <c r="F41" s="127" t="s">
@@ -18459,12 +18459,12 @@
       </c>
     </row>
     <row r="42" spans="2:44" ht="19.899999999999999" customHeight="1">
-      <c r="B42" s="227"/>
+      <c r="B42" s="206"/>
       <c r="C42" s="92" t="s">
         <v>315</v>
       </c>
-      <c r="D42" s="218"/>
-      <c r="E42" s="221"/>
+      <c r="D42" s="201"/>
+      <c r="E42" s="203"/>
       <c r="F42" s="95" t="s">
         <v>262</v>
       </c>
@@ -18556,12 +18556,12 @@
       </c>
     </row>
     <row r="43" spans="2:44" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="B43" s="227"/>
+      <c r="B43" s="206"/>
       <c r="C43" s="99" t="s">
         <v>316</v>
       </c>
-      <c r="D43" s="219"/>
-      <c r="E43" s="222"/>
+      <c r="D43" s="209"/>
+      <c r="E43" s="211"/>
       <c r="F43" s="102" t="s">
         <v>262</v>
       </c>
@@ -18653,14 +18653,14 @@
       </c>
     </row>
     <row r="44" spans="2:44" ht="19.899999999999999" customHeight="1">
-      <c r="B44" s="227"/>
+      <c r="B44" s="206"/>
       <c r="C44" s="86" t="s">
         <v>317</v>
       </c>
-      <c r="D44" s="217">
+      <c r="D44" s="208">
         <v>12</v>
       </c>
-      <c r="E44" s="231" t="s">
+      <c r="E44" s="212" t="s">
         <v>318</v>
       </c>
       <c r="F44" s="112" t="s">
@@ -18752,12 +18752,12 @@
       </c>
     </row>
     <row r="45" spans="2:44" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="B45" s="227"/>
+      <c r="B45" s="206"/>
       <c r="C45" s="99" t="s">
         <v>319</v>
       </c>
-      <c r="D45" s="219"/>
-      <c r="E45" s="232"/>
+      <c r="D45" s="209"/>
+      <c r="E45" s="214"/>
       <c r="F45" s="102" t="s">
         <v>262</v>
       </c>
@@ -18847,7 +18847,7 @@
       </c>
     </row>
     <row r="46" spans="2:44" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="B46" s="227"/>
+      <c r="B46" s="206"/>
       <c r="C46" s="120" t="s">
         <v>320</v>
       </c>
@@ -18948,7 +18948,7 @@
       </c>
     </row>
     <row r="47" spans="2:44" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="B47" s="227"/>
+      <c r="B47" s="206"/>
       <c r="C47" s="120" t="s">
         <v>322</v>
       </c>
@@ -19047,7 +19047,7 @@
       </c>
     </row>
     <row r="48" spans="2:44" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="B48" s="227"/>
+      <c r="B48" s="206"/>
       <c r="C48" s="134" t="s">
         <v>324</v>
       </c>
@@ -19144,7 +19144,7 @@
       </c>
     </row>
     <row r="49" spans="2:36" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="B49" s="227"/>
+      <c r="B49" s="206"/>
       <c r="C49" s="134" t="s">
         <v>326</v>
       </c>
@@ -19241,14 +19241,14 @@
       </c>
     </row>
     <row r="50" spans="2:36" ht="19.899999999999999" customHeight="1">
-      <c r="B50" s="230"/>
+      <c r="B50" s="217"/>
       <c r="C50" s="135" t="s">
         <v>328</v>
       </c>
-      <c r="D50" s="218">
+      <c r="D50" s="201">
         <v>17</v>
       </c>
-      <c r="E50" s="221" t="s">
+      <c r="E50" s="203" t="s">
         <v>329</v>
       </c>
       <c r="F50" s="136" t="s">
@@ -19338,12 +19338,12 @@
       </c>
     </row>
     <row r="51" spans="2:36" ht="19.899999999999999" customHeight="1">
-      <c r="B51" s="230"/>
+      <c r="B51" s="217"/>
       <c r="C51" s="135" t="s">
         <v>330</v>
       </c>
-      <c r="D51" s="218"/>
-      <c r="E51" s="221"/>
+      <c r="D51" s="201"/>
+      <c r="E51" s="203"/>
       <c r="F51" s="95" t="s">
         <v>262</v>
       </c>
@@ -19431,12 +19431,12 @@
       </c>
     </row>
     <row r="52" spans="2:36" ht="19.899999999999999" customHeight="1">
-      <c r="B52" s="230"/>
+      <c r="B52" s="217"/>
       <c r="C52" s="135" t="s">
         <v>331</v>
       </c>
-      <c r="D52" s="218"/>
-      <c r="E52" s="221"/>
+      <c r="D52" s="201"/>
+      <c r="E52" s="203"/>
       <c r="F52" s="95" t="s">
         <v>262</v>
       </c>
@@ -19524,12 +19524,12 @@
       </c>
     </row>
     <row r="53" spans="2:36" ht="19.899999999999999" customHeight="1">
-      <c r="B53" s="230"/>
+      <c r="B53" s="217"/>
       <c r="C53" s="139" t="s">
         <v>332</v>
       </c>
-      <c r="D53" s="233"/>
-      <c r="E53" s="234"/>
+      <c r="D53" s="202"/>
+      <c r="E53" s="204"/>
       <c r="F53" s="95" t="s">
         <v>262</v>
       </c>
@@ -19617,7 +19617,7 @@
       </c>
     </row>
     <row r="54" spans="2:36" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="B54" s="230"/>
+      <c r="B54" s="217"/>
       <c r="C54" s="22" t="s">
         <v>333</v>
       </c>
@@ -19714,16 +19714,16 @@
       </c>
     </row>
     <row r="55" spans="2:36" ht="19.899999999999999" customHeight="1">
-      <c r="B55" s="226" t="s">
+      <c r="B55" s="205" t="s">
         <v>335</v>
       </c>
       <c r="C55" s="86" t="s">
         <v>336</v>
       </c>
-      <c r="D55" s="217">
+      <c r="D55" s="208">
         <v>19</v>
       </c>
-      <c r="E55" s="220" t="s">
+      <c r="E55" s="210" t="s">
         <v>337</v>
       </c>
       <c r="F55" s="127" t="s">
@@ -19817,12 +19817,12 @@
       </c>
     </row>
     <row r="56" spans="2:36" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="B56" s="227"/>
+      <c r="B56" s="206"/>
       <c r="C56" s="99" t="s">
         <v>339</v>
       </c>
-      <c r="D56" s="219"/>
-      <c r="E56" s="222"/>
+      <c r="D56" s="209"/>
+      <c r="E56" s="211"/>
       <c r="F56" s="115" t="s">
         <v>271</v>
       </c>
@@ -19914,14 +19914,14 @@
       </c>
     </row>
     <row r="57" spans="2:36" ht="19.899999999999999" customHeight="1">
-      <c r="B57" s="227"/>
+      <c r="B57" s="206"/>
       <c r="C57" s="86" t="s">
         <v>340</v>
       </c>
-      <c r="D57" s="217">
+      <c r="D57" s="208">
         <v>20</v>
       </c>
-      <c r="E57" s="231" t="s">
+      <c r="E57" s="212" t="s">
         <v>341</v>
       </c>
       <c r="F57" s="127" t="s">
@@ -20013,12 +20013,12 @@
       </c>
     </row>
     <row r="58" spans="2:36" ht="19.899999999999999" customHeight="1">
-      <c r="B58" s="227"/>
+      <c r="B58" s="206"/>
       <c r="C58" s="92" t="s">
         <v>342</v>
       </c>
-      <c r="D58" s="218"/>
-      <c r="E58" s="236"/>
+      <c r="D58" s="201"/>
+      <c r="E58" s="213"/>
       <c r="F58" s="114" t="s">
         <v>271</v>
       </c>
@@ -20108,12 +20108,12 @@
       </c>
     </row>
     <row r="59" spans="2:36" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="B59" s="227"/>
+      <c r="B59" s="206"/>
       <c r="C59" s="99" t="s">
         <v>343</v>
       </c>
-      <c r="D59" s="219"/>
-      <c r="E59" s="232"/>
+      <c r="D59" s="209"/>
+      <c r="E59" s="214"/>
       <c r="F59" s="115" t="s">
         <v>271</v>
       </c>
@@ -20203,7 +20203,7 @@
       </c>
     </row>
     <row r="60" spans="2:36" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="B60" s="227"/>
+      <c r="B60" s="206"/>
       <c r="C60" s="120" t="s">
         <v>344</v>
       </c>
@@ -20304,7 +20304,7 @@
       </c>
     </row>
     <row r="61" spans="2:36" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="B61" s="227"/>
+      <c r="B61" s="206"/>
       <c r="C61" s="120" t="s">
         <v>346</v>
       </c>
@@ -20401,7 +20401,7 @@
       </c>
     </row>
     <row r="62" spans="2:36" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="B62" s="227"/>
+      <c r="B62" s="206"/>
       <c r="C62" s="134" t="s">
         <v>348</v>
       </c>
@@ -20498,14 +20498,14 @@
       </c>
     </row>
     <row r="63" spans="2:36" ht="19.899999999999999" customHeight="1">
-      <c r="B63" s="227"/>
+      <c r="B63" s="206"/>
       <c r="C63" s="143" t="s">
         <v>351</v>
       </c>
-      <c r="D63" s="217">
+      <c r="D63" s="208">
         <v>24</v>
       </c>
-      <c r="E63" s="220" t="s">
+      <c r="E63" s="210" t="s">
         <v>352</v>
       </c>
       <c r="F63" s="127" t="s">
@@ -20597,12 +20597,12 @@
       </c>
     </row>
     <row r="64" spans="2:36" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="B64" s="227"/>
+      <c r="B64" s="206"/>
       <c r="C64" s="99" t="s">
         <v>353</v>
       </c>
-      <c r="D64" s="219"/>
-      <c r="E64" s="222"/>
+      <c r="D64" s="209"/>
+      <c r="E64" s="211"/>
       <c r="F64" s="115" t="s">
         <v>271</v>
       </c>
@@ -20692,7 +20692,7 @@
       </c>
     </row>
     <row r="65" spans="2:36" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="B65" s="227"/>
+      <c r="B65" s="206"/>
       <c r="C65" s="134" t="s">
         <v>354</v>
       </c>
@@ -20789,7 +20789,7 @@
       </c>
     </row>
     <row r="66" spans="2:36" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="B66" s="235"/>
+      <c r="B66" s="207"/>
       <c r="C66" s="120" t="s">
         <v>356</v>
       </c>
@@ -21950,15 +21950,77 @@
     <row r="702" ht="13.9" customHeight="1"/>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="B55:B66"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="AO34:AR36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="B11:B20"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="B23:B36"/>
+    <mergeCell ref="D23:D33"/>
+    <mergeCell ref="E23:E33"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="R39:R40"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
     <mergeCell ref="AF39:AF40"/>
     <mergeCell ref="AG39:AG40"/>
     <mergeCell ref="AH39:AH40"/>
@@ -21983,77 +22045,15 @@
     <mergeCell ref="Y39:Y40"/>
     <mergeCell ref="N39:N40"/>
     <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="R39:R40"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="B23:B36"/>
-    <mergeCell ref="D23:D33"/>
-    <mergeCell ref="E23:E33"/>
-    <mergeCell ref="AO34:AR36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="B11:B20"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="B55:B66"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22065,7 +22065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D296745-5AAB-48A4-97F9-C25431E2FD7A}">
   <dimension ref="A2:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -22360,136 +22360,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="188" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="173" t="s">
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="179" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
-      <c r="N1" s="175"/>
-      <c r="O1" s="173" t="s">
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
+      <c r="M1" s="180"/>
+      <c r="N1" s="181"/>
+      <c r="O1" s="179" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="174"/>
-      <c r="S1" s="174"/>
-      <c r="T1" s="174"/>
-      <c r="U1" s="174"/>
-      <c r="V1" s="174"/>
-      <c r="W1" s="174"/>
-      <c r="X1" s="174"/>
-      <c r="Y1" s="174"/>
-      <c r="Z1" s="174"/>
-      <c r="AA1" s="174"/>
-      <c r="AB1" s="174"/>
-      <c r="AC1" s="174"/>
-      <c r="AD1" s="174"/>
-      <c r="AE1" s="175"/>
-      <c r="AF1" s="173" t="s">
+      <c r="P1" s="180"/>
+      <c r="Q1" s="180"/>
+      <c r="R1" s="180"/>
+      <c r="S1" s="180"/>
+      <c r="T1" s="180"/>
+      <c r="U1" s="180"/>
+      <c r="V1" s="180"/>
+      <c r="W1" s="180"/>
+      <c r="X1" s="180"/>
+      <c r="Y1" s="180"/>
+      <c r="Z1" s="180"/>
+      <c r="AA1" s="180"/>
+      <c r="AB1" s="180"/>
+      <c r="AC1" s="180"/>
+      <c r="AD1" s="180"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="179" t="s">
         <v>52</v>
       </c>
-      <c r="AG1" s="174"/>
-      <c r="AH1" s="174"/>
-      <c r="AI1" s="175"/>
-      <c r="AJ1" s="170" t="s">
+      <c r="AG1" s="180"/>
+      <c r="AH1" s="180"/>
+      <c r="AI1" s="181"/>
+      <c r="AJ1" s="176" t="s">
         <v>57</v>
       </c>
-      <c r="AK1" s="171"/>
-      <c r="AL1" s="171"/>
-      <c r="AM1" s="171"/>
-      <c r="AN1" s="171"/>
-      <c r="AO1" s="171"/>
-      <c r="AP1" s="171"/>
-      <c r="AQ1" s="172"/>
-      <c r="AR1" s="173" t="s">
+      <c r="AK1" s="177"/>
+      <c r="AL1" s="177"/>
+      <c r="AM1" s="177"/>
+      <c r="AN1" s="177"/>
+      <c r="AO1" s="177"/>
+      <c r="AP1" s="177"/>
+      <c r="AQ1" s="178"/>
+      <c r="AR1" s="179" t="s">
         <v>53</v>
       </c>
-      <c r="AS1" s="174"/>
-      <c r="AT1" s="174"/>
-      <c r="AU1" s="175"/>
-      <c r="AV1" s="176"/>
-      <c r="AW1" s="177"/>
-      <c r="AX1" s="177"/>
-      <c r="AY1" s="177"/>
-      <c r="AZ1" s="177"/>
-      <c r="BA1" s="177"/>
-      <c r="BB1" s="177"/>
-      <c r="BC1" s="178"/>
+      <c r="AS1" s="180"/>
+      <c r="AT1" s="180"/>
+      <c r="AU1" s="181"/>
+      <c r="AV1" s="182"/>
+      <c r="AW1" s="183"/>
+      <c r="AX1" s="183"/>
+      <c r="AY1" s="183"/>
+      <c r="AZ1" s="183"/>
+      <c r="BA1" s="183"/>
+      <c r="BB1" s="183"/>
+      <c r="BC1" s="184"/>
     </row>
     <row r="2" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A2" s="179"/>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="170" t="s">
+      <c r="A2" s="185"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="176" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="171"/>
-      <c r="L2" s="171"/>
-      <c r="M2" s="171"/>
-      <c r="N2" s="172"/>
-      <c r="O2" s="170"/>
-      <c r="P2" s="171"/>
-      <c r="Q2" s="171"/>
-      <c r="R2" s="171"/>
-      <c r="S2" s="171"/>
-      <c r="T2" s="171"/>
-      <c r="U2" s="171"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="171"/>
-      <c r="X2" s="171"/>
-      <c r="Y2" s="171"/>
-      <c r="Z2" s="171"/>
-      <c r="AA2" s="171"/>
-      <c r="AB2" s="171"/>
-      <c r="AC2" s="171"/>
-      <c r="AD2" s="171"/>
-      <c r="AE2" s="172"/>
-      <c r="AF2" s="179" t="s">
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="177"/>
+      <c r="M2" s="177"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="176"/>
+      <c r="P2" s="177"/>
+      <c r="Q2" s="177"/>
+      <c r="R2" s="177"/>
+      <c r="S2" s="177"/>
+      <c r="T2" s="177"/>
+      <c r="U2" s="177"/>
+      <c r="V2" s="177"/>
+      <c r="W2" s="177"/>
+      <c r="X2" s="177"/>
+      <c r="Y2" s="177"/>
+      <c r="Z2" s="177"/>
+      <c r="AA2" s="177"/>
+      <c r="AB2" s="177"/>
+      <c r="AC2" s="177"/>
+      <c r="AD2" s="177"/>
+      <c r="AE2" s="178"/>
+      <c r="AF2" s="185" t="s">
         <v>54</v>
       </c>
-      <c r="AG2" s="180"/>
-      <c r="AH2" s="180"/>
-      <c r="AI2" s="181"/>
-      <c r="AJ2" s="170"/>
-      <c r="AK2" s="171"/>
-      <c r="AL2" s="171"/>
-      <c r="AM2" s="171"/>
-      <c r="AN2" s="171"/>
-      <c r="AO2" s="171"/>
-      <c r="AP2" s="171"/>
-      <c r="AQ2" s="172"/>
-      <c r="AR2" s="179" t="s">
+      <c r="AG2" s="186"/>
+      <c r="AH2" s="186"/>
+      <c r="AI2" s="187"/>
+      <c r="AJ2" s="176"/>
+      <c r="AK2" s="177"/>
+      <c r="AL2" s="177"/>
+      <c r="AM2" s="177"/>
+      <c r="AN2" s="177"/>
+      <c r="AO2" s="177"/>
+      <c r="AP2" s="177"/>
+      <c r="AQ2" s="178"/>
+      <c r="AR2" s="185" t="s">
         <v>55</v>
       </c>
-      <c r="AS2" s="180"/>
-      <c r="AT2" s="180"/>
-      <c r="AU2" s="181"/>
-      <c r="AV2" s="176"/>
-      <c r="AW2" s="177"/>
-      <c r="AX2" s="177"/>
-      <c r="AY2" s="177"/>
-      <c r="AZ2" s="177"/>
-      <c r="BA2" s="177"/>
-      <c r="BB2" s="177"/>
-      <c r="BC2" s="178"/>
+      <c r="AS2" s="186"/>
+      <c r="AT2" s="186"/>
+      <c r="AU2" s="187"/>
+      <c r="AV2" s="182"/>
+      <c r="AW2" s="183"/>
+      <c r="AX2" s="183"/>
+      <c r="AY2" s="183"/>
+      <c r="AZ2" s="183"/>
+      <c r="BA2" s="183"/>
+      <c r="BB2" s="183"/>
+      <c r="BC2" s="184"/>
     </row>
     <row r="3" spans="1:55" ht="14.25" customHeight="1">
       <c r="A3" s="12"/>
@@ -22549,128 +22549,128 @@
       <c r="BC3" s="13"/>
     </row>
     <row r="4" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A4" s="158" t="s">
+      <c r="A4" s="167" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="159"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="158" t="s">
+      <c r="B4" s="168"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="167" t="s">
         <v>206</v>
       </c>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="158" t="s">
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="168"/>
+      <c r="L4" s="168"/>
+      <c r="M4" s="168"/>
+      <c r="N4" s="168"/>
+      <c r="O4" s="168"/>
+      <c r="P4" s="168"/>
+      <c r="Q4" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="159"/>
-      <c r="S4" s="159"/>
-      <c r="T4" s="159"/>
-      <c r="U4" s="159"/>
-      <c r="V4" s="159"/>
-      <c r="W4" s="159"/>
-      <c r="X4" s="159"/>
-      <c r="Y4" s="159"/>
-      <c r="Z4" s="159"/>
-      <c r="AA4" s="159"/>
-      <c r="AB4" s="159"/>
-      <c r="AC4" s="159"/>
-      <c r="AD4" s="158" t="s">
+      <c r="R4" s="168"/>
+      <c r="S4" s="168"/>
+      <c r="T4" s="168"/>
+      <c r="U4" s="168"/>
+      <c r="V4" s="168"/>
+      <c r="W4" s="168"/>
+      <c r="X4" s="168"/>
+      <c r="Y4" s="168"/>
+      <c r="Z4" s="168"/>
+      <c r="AA4" s="168"/>
+      <c r="AB4" s="168"/>
+      <c r="AC4" s="168"/>
+      <c r="AD4" s="167" t="s">
         <v>63</v>
       </c>
-      <c r="AE4" s="159"/>
-      <c r="AF4" s="159"/>
-      <c r="AG4" s="159"/>
-      <c r="AH4" s="159"/>
-      <c r="AI4" s="159"/>
-      <c r="AJ4" s="159"/>
-      <c r="AK4" s="159"/>
-      <c r="AL4" s="159"/>
-      <c r="AM4" s="159"/>
-      <c r="AN4" s="159"/>
-      <c r="AO4" s="159"/>
-      <c r="AP4" s="160"/>
-      <c r="AQ4" s="159" t="s">
+      <c r="AE4" s="168"/>
+      <c r="AF4" s="168"/>
+      <c r="AG4" s="168"/>
+      <c r="AH4" s="168"/>
+      <c r="AI4" s="168"/>
+      <c r="AJ4" s="168"/>
+      <c r="AK4" s="168"/>
+      <c r="AL4" s="168"/>
+      <c r="AM4" s="168"/>
+      <c r="AN4" s="168"/>
+      <c r="AO4" s="168"/>
+      <c r="AP4" s="169"/>
+      <c r="AQ4" s="168" t="s">
         <v>59</v>
       </c>
-      <c r="AR4" s="159"/>
-      <c r="AS4" s="159"/>
-      <c r="AT4" s="159"/>
-      <c r="AU4" s="159"/>
-      <c r="AV4" s="159"/>
-      <c r="AW4" s="159"/>
-      <c r="AX4" s="159"/>
-      <c r="AY4" s="159"/>
-      <c r="AZ4" s="159"/>
-      <c r="BA4" s="159"/>
-      <c r="BB4" s="159"/>
-      <c r="BC4" s="160"/>
+      <c r="AR4" s="168"/>
+      <c r="AS4" s="168"/>
+      <c r="AT4" s="168"/>
+      <c r="AU4" s="168"/>
+      <c r="AV4" s="168"/>
+      <c r="AW4" s="168"/>
+      <c r="AX4" s="168"/>
+      <c r="AY4" s="168"/>
+      <c r="AZ4" s="168"/>
+      <c r="BA4" s="168"/>
+      <c r="BB4" s="168"/>
+      <c r="BC4" s="169"/>
     </row>
     <row r="5" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A5" s="161"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="162"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="162"/>
-      <c r="H5" s="162"/>
-      <c r="I5" s="162"/>
-      <c r="J5" s="162"/>
-      <c r="K5" s="162"/>
-      <c r="L5" s="162"/>
-      <c r="M5" s="162"/>
-      <c r="N5" s="162"/>
-      <c r="O5" s="162"/>
-      <c r="P5" s="162"/>
-      <c r="Q5" s="161"/>
-      <c r="R5" s="162"/>
-      <c r="S5" s="162"/>
-      <c r="T5" s="162"/>
-      <c r="U5" s="162"/>
-      <c r="V5" s="162"/>
-      <c r="W5" s="162"/>
-      <c r="X5" s="162"/>
-      <c r="Y5" s="162"/>
-      <c r="Z5" s="162"/>
-      <c r="AA5" s="162"/>
-      <c r="AB5" s="162"/>
-      <c r="AC5" s="162"/>
-      <c r="AD5" s="161"/>
-      <c r="AE5" s="162"/>
-      <c r="AF5" s="162"/>
-      <c r="AG5" s="162"/>
-      <c r="AH5" s="162"/>
-      <c r="AI5" s="162"/>
-      <c r="AJ5" s="162"/>
-      <c r="AK5" s="162"/>
-      <c r="AL5" s="162"/>
-      <c r="AM5" s="162"/>
-      <c r="AN5" s="162"/>
-      <c r="AO5" s="162"/>
-      <c r="AP5" s="163"/>
-      <c r="AQ5" s="162"/>
-      <c r="AR5" s="162"/>
-      <c r="AS5" s="162"/>
-      <c r="AT5" s="162"/>
-      <c r="AU5" s="162"/>
-      <c r="AV5" s="162"/>
-      <c r="AW5" s="162"/>
-      <c r="AX5" s="162"/>
-      <c r="AY5" s="162"/>
-      <c r="AZ5" s="162"/>
-      <c r="BA5" s="162"/>
-      <c r="BB5" s="162"/>
-      <c r="BC5" s="163"/>
+      <c r="A5" s="170"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="171"/>
+      <c r="L5" s="171"/>
+      <c r="M5" s="171"/>
+      <c r="N5" s="171"/>
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="170"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="171"/>
+      <c r="AC5" s="171"/>
+      <c r="AD5" s="170"/>
+      <c r="AE5" s="171"/>
+      <c r="AF5" s="171"/>
+      <c r="AG5" s="171"/>
+      <c r="AH5" s="171"/>
+      <c r="AI5" s="171"/>
+      <c r="AJ5" s="171"/>
+      <c r="AK5" s="171"/>
+      <c r="AL5" s="171"/>
+      <c r="AM5" s="171"/>
+      <c r="AN5" s="171"/>
+      <c r="AO5" s="171"/>
+      <c r="AP5" s="172"/>
+      <c r="AQ5" s="171"/>
+      <c r="AR5" s="171"/>
+      <c r="AS5" s="171"/>
+      <c r="AT5" s="171"/>
+      <c r="AU5" s="171"/>
+      <c r="AV5" s="171"/>
+      <c r="AW5" s="171"/>
+      <c r="AX5" s="171"/>
+      <c r="AY5" s="171"/>
+      <c r="AZ5" s="171"/>
+      <c r="BA5" s="171"/>
+      <c r="BB5" s="171"/>
+      <c r="BC5" s="172"/>
     </row>
     <row r="6" spans="1:55" ht="14.25" customHeight="1">
       <c r="A6" s="79"/>
@@ -22883,9 +22883,9 @@
       <c r="BC21" s="18"/>
     </row>
     <row r="22" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A22" s="164"/>
-      <c r="B22" s="165"/>
-      <c r="C22" s="166"/>
+      <c r="A22" s="173"/>
+      <c r="B22" s="174"/>
+      <c r="C22" s="175"/>
       <c r="D22" s="17"/>
       <c r="Q22" s="17"/>
       <c r="AD22" s="17"/>
@@ -22893,9 +22893,9 @@
       <c r="BC22" s="18"/>
     </row>
     <row r="23" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A23" s="167"/>
-      <c r="B23" s="168"/>
-      <c r="C23" s="169"/>
+      <c r="A23" s="158"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="160"/>
       <c r="D23" s="17"/>
       <c r="Q23" s="17"/>
       <c r="AD23" s="17"/>
@@ -22903,9 +22903,9 @@
       <c r="BC23" s="18"/>
     </row>
     <row r="24" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A24" s="167"/>
-      <c r="B24" s="168"/>
-      <c r="C24" s="169"/>
+      <c r="A24" s="158"/>
+      <c r="B24" s="159"/>
+      <c r="C24" s="160"/>
       <c r="D24" s="17"/>
       <c r="Q24" s="17"/>
       <c r="AD24" s="17"/>
@@ -22913,9 +22913,9 @@
       <c r="BC24" s="18"/>
     </row>
     <row r="25" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A25" s="167"/>
-      <c r="B25" s="168"/>
-      <c r="C25" s="169"/>
+      <c r="A25" s="158"/>
+      <c r="B25" s="159"/>
+      <c r="C25" s="160"/>
       <c r="D25" s="17"/>
       <c r="Q25" s="17"/>
       <c r="AD25" s="17"/>
@@ -22923,9 +22923,9 @@
       <c r="BC25" s="18"/>
     </row>
     <row r="26" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A26" s="167"/>
-      <c r="B26" s="168"/>
-      <c r="C26" s="169"/>
+      <c r="A26" s="158"/>
+      <c r="B26" s="159"/>
+      <c r="C26" s="160"/>
       <c r="D26" s="17"/>
       <c r="Q26" s="17"/>
       <c r="AD26" s="17"/>
@@ -22933,9 +22933,9 @@
       <c r="BC26" s="18"/>
     </row>
     <row r="27" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A27" s="167"/>
-      <c r="B27" s="168"/>
-      <c r="C27" s="169"/>
+      <c r="A27" s="158"/>
+      <c r="B27" s="159"/>
+      <c r="C27" s="160"/>
       <c r="D27" s="17"/>
       <c r="Q27" s="17"/>
       <c r="AD27" s="17"/>
@@ -22946,9 +22946,9 @@
       <c r="BC27" s="18"/>
     </row>
     <row r="28" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A28" s="167"/>
-      <c r="B28" s="168"/>
-      <c r="C28" s="169"/>
+      <c r="A28" s="158"/>
+      <c r="B28" s="159"/>
+      <c r="C28" s="160"/>
       <c r="D28" s="17"/>
       <c r="Q28" s="17"/>
       <c r="AD28" s="17"/>
@@ -22956,9 +22956,9 @@
       <c r="BC28" s="18"/>
     </row>
     <row r="29" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A29" s="167"/>
-      <c r="B29" s="168"/>
-      <c r="C29" s="169"/>
+      <c r="A29" s="158"/>
+      <c r="B29" s="159"/>
+      <c r="C29" s="160"/>
       <c r="D29" s="17"/>
       <c r="Q29" s="17"/>
       <c r="AD29" s="17"/>
@@ -22967,9 +22967,9 @@
       <c r="BC29" s="18"/>
     </row>
     <row r="30" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A30" s="167"/>
-      <c r="B30" s="168"/>
-      <c r="C30" s="169"/>
+      <c r="A30" s="158"/>
+      <c r="B30" s="159"/>
+      <c r="C30" s="160"/>
       <c r="D30" s="17"/>
       <c r="Q30" s="17"/>
       <c r="AD30" s="17"/>
@@ -22978,9 +22978,9 @@
       <c r="BC30" s="18"/>
     </row>
     <row r="31" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A31" s="167"/>
-      <c r="B31" s="168"/>
-      <c r="C31" s="169"/>
+      <c r="A31" s="158"/>
+      <c r="B31" s="159"/>
+      <c r="C31" s="160"/>
       <c r="D31" s="17"/>
       <c r="Q31" s="17"/>
       <c r="AD31" s="17"/>
@@ -22988,9 +22988,9 @@
       <c r="BC31" s="18"/>
     </row>
     <row r="32" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A32" s="167"/>
-      <c r="B32" s="168"/>
-      <c r="C32" s="169"/>
+      <c r="A32" s="158"/>
+      <c r="B32" s="159"/>
+      <c r="C32" s="160"/>
       <c r="D32" s="17"/>
       <c r="Q32" s="17"/>
       <c r="AD32" s="17"/>
@@ -22998,9 +22998,9 @@
       <c r="BC32" s="18"/>
     </row>
     <row r="33" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A33" s="167"/>
-      <c r="B33" s="168"/>
-      <c r="C33" s="169"/>
+      <c r="A33" s="158"/>
+      <c r="B33" s="159"/>
+      <c r="C33" s="160"/>
       <c r="D33" s="17"/>
       <c r="Q33" s="17"/>
       <c r="AD33" s="17"/>
@@ -23008,9 +23008,9 @@
       <c r="BC33" s="18"/>
     </row>
     <row r="34" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A34" s="167"/>
-      <c r="B34" s="168"/>
-      <c r="C34" s="169"/>
+      <c r="A34" s="158"/>
+      <c r="B34" s="159"/>
+      <c r="C34" s="160"/>
       <c r="D34" s="17"/>
       <c r="Q34" s="17"/>
       <c r="AD34" s="17"/>
@@ -23018,9 +23018,9 @@
       <c r="BC34" s="18"/>
     </row>
     <row r="35" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A35" s="167"/>
-      <c r="B35" s="168"/>
-      <c r="C35" s="169"/>
+      <c r="A35" s="158"/>
+      <c r="B35" s="159"/>
+      <c r="C35" s="160"/>
       <c r="D35" s="17"/>
       <c r="Q35" s="17"/>
       <c r="AD35" s="17"/>
@@ -23031,9 +23031,9 @@
       <c r="BC35" s="18"/>
     </row>
     <row r="36" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A36" s="167"/>
-      <c r="B36" s="168"/>
-      <c r="C36" s="169"/>
+      <c r="A36" s="158"/>
+      <c r="B36" s="159"/>
+      <c r="C36" s="160"/>
       <c r="D36" s="17"/>
       <c r="Q36" s="17"/>
       <c r="AD36" s="17"/>
@@ -23042,9 +23042,9 @@
       <c r="BC36" s="18"/>
     </row>
     <row r="37" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A37" s="167"/>
-      <c r="B37" s="168"/>
-      <c r="C37" s="169"/>
+      <c r="A37" s="158"/>
+      <c r="B37" s="159"/>
+      <c r="C37" s="160"/>
       <c r="D37" s="17"/>
       <c r="Q37" s="17"/>
       <c r="AD37" s="17"/>
@@ -23052,9 +23052,9 @@
       <c r="BC37" s="18"/>
     </row>
     <row r="38" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A38" s="167"/>
-      <c r="B38" s="168"/>
-      <c r="C38" s="169"/>
+      <c r="A38" s="158"/>
+      <c r="B38" s="159"/>
+      <c r="C38" s="160"/>
       <c r="D38" s="17"/>
       <c r="Q38" s="17"/>
       <c r="AD38" s="17"/>
@@ -23062,9 +23062,9 @@
       <c r="BC38" s="18"/>
     </row>
     <row r="39" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A39" s="167"/>
-      <c r="B39" s="168"/>
-      <c r="C39" s="169"/>
+      <c r="A39" s="158"/>
+      <c r="B39" s="159"/>
+      <c r="C39" s="160"/>
       <c r="D39" s="17"/>
       <c r="Q39" s="17"/>
       <c r="AD39" s="17"/>
@@ -23072,9 +23072,9 @@
       <c r="BC39" s="18"/>
     </row>
     <row r="40" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A40" s="167"/>
-      <c r="B40" s="168"/>
-      <c r="C40" s="169"/>
+      <c r="A40" s="158"/>
+      <c r="B40" s="159"/>
+      <c r="C40" s="160"/>
       <c r="D40" s="17"/>
       <c r="Q40" s="17"/>
       <c r="AD40" s="17"/>
@@ -23082,9 +23082,9 @@
       <c r="BC40" s="18"/>
     </row>
     <row r="41" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A41" s="167"/>
-      <c r="B41" s="168"/>
-      <c r="C41" s="169"/>
+      <c r="A41" s="158"/>
+      <c r="B41" s="159"/>
+      <c r="C41" s="160"/>
       <c r="D41" s="17"/>
       <c r="Q41" s="17"/>
       <c r="AD41" s="17"/>
@@ -23092,9 +23092,9 @@
       <c r="BC41" s="18"/>
     </row>
     <row r="42" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A42" s="167"/>
-      <c r="B42" s="168"/>
-      <c r="C42" s="169"/>
+      <c r="A42" s="158"/>
+      <c r="B42" s="159"/>
+      <c r="C42" s="160"/>
       <c r="D42" s="17"/>
       <c r="Q42" s="17"/>
       <c r="AD42" s="17"/>
@@ -23102,9 +23102,9 @@
       <c r="BC42" s="18"/>
     </row>
     <row r="43" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A43" s="167"/>
-      <c r="B43" s="168"/>
-      <c r="C43" s="169"/>
+      <c r="A43" s="158"/>
+      <c r="B43" s="159"/>
+      <c r="C43" s="160"/>
       <c r="D43" s="17"/>
       <c r="Q43" s="17"/>
       <c r="AD43" s="17"/>
@@ -23112,9 +23112,9 @@
       <c r="BC43" s="18"/>
     </row>
     <row r="44" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A44" s="167"/>
-      <c r="B44" s="168"/>
-      <c r="C44" s="169"/>
+      <c r="A44" s="158"/>
+      <c r="B44" s="159"/>
+      <c r="C44" s="160"/>
       <c r="D44" s="17"/>
       <c r="J44" t="s">
         <v>208</v>
@@ -23125,9 +23125,9 @@
       <c r="BC44" s="18"/>
     </row>
     <row r="45" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A45" s="185"/>
-      <c r="B45" s="186"/>
-      <c r="C45" s="187"/>
+      <c r="A45" s="161"/>
+      <c r="B45" s="162"/>
+      <c r="C45" s="163"/>
       <c r="D45" s="17"/>
       <c r="Q45" s="17"/>
       <c r="AD45" s="17"/>
@@ -23135,9 +23135,9 @@
       <c r="BC45" s="18"/>
     </row>
     <row r="46" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A46" s="185"/>
-      <c r="B46" s="186"/>
-      <c r="C46" s="187"/>
+      <c r="A46" s="161"/>
+      <c r="B46" s="162"/>
+      <c r="C46" s="163"/>
       <c r="D46" s="17"/>
       <c r="Q46" s="17"/>
       <c r="AD46" s="17"/>
@@ -23146,9 +23146,9 @@
       <c r="BC46" s="18"/>
     </row>
     <row r="47" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A47" s="185"/>
-      <c r="B47" s="186"/>
-      <c r="C47" s="187"/>
+      <c r="A47" s="161"/>
+      <c r="B47" s="162"/>
+      <c r="C47" s="163"/>
       <c r="D47" s="17"/>
       <c r="Q47" s="17"/>
       <c r="AD47" s="17"/>
@@ -23156,9 +23156,9 @@
       <c r="BC47" s="18"/>
     </row>
     <row r="48" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A48" s="185"/>
-      <c r="B48" s="186"/>
-      <c r="C48" s="187"/>
+      <c r="A48" s="161"/>
+      <c r="B48" s="162"/>
+      <c r="C48" s="163"/>
       <c r="D48" s="17"/>
       <c r="Q48" s="17"/>
       <c r="AD48" s="17"/>
@@ -23166,9 +23166,9 @@
       <c r="BC48" s="18"/>
     </row>
     <row r="49" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A49" s="185"/>
-      <c r="B49" s="186"/>
-      <c r="C49" s="187"/>
+      <c r="A49" s="161"/>
+      <c r="B49" s="162"/>
+      <c r="C49" s="163"/>
       <c r="D49" s="17"/>
       <c r="Q49" s="17"/>
       <c r="AD49" s="17"/>
@@ -23176,55 +23176,55 @@
       <c r="BC49" s="18"/>
     </row>
     <row r="50" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A50" s="185"/>
-      <c r="B50" s="186"/>
-      <c r="C50" s="187"/>
-      <c r="D50" s="158" t="s">
+      <c r="A50" s="161"/>
+      <c r="B50" s="162"/>
+      <c r="C50" s="163"/>
+      <c r="D50" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="E50" s="159"/>
-      <c r="F50" s="159"/>
-      <c r="G50" s="159"/>
-      <c r="H50" s="159"/>
-      <c r="I50" s="159"/>
-      <c r="J50" s="159"/>
-      <c r="K50" s="159"/>
-      <c r="L50" s="159"/>
-      <c r="M50" s="159"/>
-      <c r="N50" s="159"/>
-      <c r="O50" s="159"/>
-      <c r="P50" s="159"/>
+      <c r="E50" s="168"/>
+      <c r="F50" s="168"/>
+      <c r="G50" s="168"/>
+      <c r="H50" s="168"/>
+      <c r="I50" s="168"/>
+      <c r="J50" s="168"/>
+      <c r="K50" s="168"/>
+      <c r="L50" s="168"/>
+      <c r="M50" s="168"/>
+      <c r="N50" s="168"/>
+      <c r="O50" s="168"/>
+      <c r="P50" s="168"/>
       <c r="Q50" s="17"/>
       <c r="AD50" s="17"/>
       <c r="AP50" s="18"/>
       <c r="BC50" s="18"/>
     </row>
     <row r="51" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A51" s="185"/>
-      <c r="B51" s="186"/>
-      <c r="C51" s="187"/>
-      <c r="D51" s="161"/>
-      <c r="E51" s="162"/>
-      <c r="F51" s="162"/>
-      <c r="G51" s="162"/>
-      <c r="H51" s="162"/>
-      <c r="I51" s="162"/>
-      <c r="J51" s="162"/>
-      <c r="K51" s="162"/>
-      <c r="L51" s="162"/>
-      <c r="M51" s="162"/>
-      <c r="N51" s="162"/>
-      <c r="O51" s="162"/>
-      <c r="P51" s="162"/>
+      <c r="A51" s="161"/>
+      <c r="B51" s="162"/>
+      <c r="C51" s="163"/>
+      <c r="D51" s="170"/>
+      <c r="E51" s="171"/>
+      <c r="F51" s="171"/>
+      <c r="G51" s="171"/>
+      <c r="H51" s="171"/>
+      <c r="I51" s="171"/>
+      <c r="J51" s="171"/>
+      <c r="K51" s="171"/>
+      <c r="L51" s="171"/>
+      <c r="M51" s="171"/>
+      <c r="N51" s="171"/>
+      <c r="O51" s="171"/>
+      <c r="P51" s="171"/>
       <c r="Q51" s="17"/>
       <c r="AD51" s="17"/>
       <c r="AP51" s="18"/>
       <c r="BC51" s="18"/>
     </row>
     <row r="52" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A52" s="185"/>
-      <c r="B52" s="186"/>
-      <c r="C52" s="187"/>
+      <c r="A52" s="161"/>
+      <c r="B52" s="162"/>
+      <c r="C52" s="163"/>
       <c r="D52" s="17"/>
       <c r="Q52" s="17"/>
       <c r="AD52" s="17"/>
@@ -23232,9 +23232,9 @@
       <c r="BC52" s="18"/>
     </row>
     <row r="53" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A53" s="185"/>
-      <c r="B53" s="186"/>
-      <c r="C53" s="187"/>
+      <c r="A53" s="161"/>
+      <c r="B53" s="162"/>
+      <c r="C53" s="163"/>
       <c r="D53" s="17"/>
       <c r="Q53" s="17"/>
       <c r="AD53" s="17"/>
@@ -23242,9 +23242,9 @@
       <c r="BC53" s="18"/>
     </row>
     <row r="54" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A54" s="185"/>
-      <c r="B54" s="186"/>
-      <c r="C54" s="187"/>
+      <c r="A54" s="161"/>
+      <c r="B54" s="162"/>
+      <c r="C54" s="163"/>
       <c r="D54" s="17"/>
       <c r="Q54" s="17"/>
       <c r="AD54" s="17"/>
@@ -23252,9 +23252,9 @@
       <c r="BC54" s="18"/>
     </row>
     <row r="55" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A55" s="185"/>
-      <c r="B55" s="186"/>
-      <c r="C55" s="187"/>
+      <c r="A55" s="161"/>
+      <c r="B55" s="162"/>
+      <c r="C55" s="163"/>
       <c r="D55" s="17"/>
       <c r="Q55" s="17"/>
       <c r="AD55" s="17"/>
@@ -23262,9 +23262,9 @@
       <c r="BC55" s="18"/>
     </row>
     <row r="56" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A56" s="185"/>
-      <c r="B56" s="186"/>
-      <c r="C56" s="187"/>
+      <c r="A56" s="161"/>
+      <c r="B56" s="162"/>
+      <c r="C56" s="163"/>
       <c r="D56" s="17"/>
       <c r="Q56" s="17"/>
       <c r="AD56" s="17"/>
@@ -23272,9 +23272,9 @@
       <c r="BC56" s="18"/>
     </row>
     <row r="57" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A57" s="185"/>
-      <c r="B57" s="186"/>
-      <c r="C57" s="187"/>
+      <c r="A57" s="161"/>
+      <c r="B57" s="162"/>
+      <c r="C57" s="163"/>
       <c r="D57" s="17"/>
       <c r="Q57" s="17"/>
       <c r="AD57" s="17"/>
@@ -23282,9 +23282,9 @@
       <c r="BC57" s="18"/>
     </row>
     <row r="58" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A58" s="185"/>
-      <c r="B58" s="186"/>
-      <c r="C58" s="187"/>
+      <c r="A58" s="161"/>
+      <c r="B58" s="162"/>
+      <c r="C58" s="163"/>
       <c r="D58" s="17"/>
       <c r="Q58" s="17"/>
       <c r="AD58" s="17"/>
@@ -23292,9 +23292,9 @@
       <c r="BC58" s="18"/>
     </row>
     <row r="59" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A59" s="185"/>
-      <c r="B59" s="186"/>
-      <c r="C59" s="187"/>
+      <c r="A59" s="161"/>
+      <c r="B59" s="162"/>
+      <c r="C59" s="163"/>
       <c r="D59" s="17"/>
       <c r="Q59" s="17"/>
       <c r="AD59" s="17"/>
@@ -23302,9 +23302,9 @@
       <c r="BC59" s="18"/>
     </row>
     <row r="60" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A60" s="185"/>
-      <c r="B60" s="186"/>
-      <c r="C60" s="187"/>
+      <c r="A60" s="161"/>
+      <c r="B60" s="162"/>
+      <c r="C60" s="163"/>
       <c r="D60" s="17"/>
       <c r="Q60" s="17"/>
       <c r="AD60" s="17"/>
@@ -23315,9 +23315,9 @@
       <c r="BC60" s="18"/>
     </row>
     <row r="61" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A61" s="185"/>
-      <c r="B61" s="186"/>
-      <c r="C61" s="187"/>
+      <c r="A61" s="161"/>
+      <c r="B61" s="162"/>
+      <c r="C61" s="163"/>
       <c r="D61" s="17"/>
       <c r="Q61" s="17"/>
       <c r="AD61" s="17"/>
@@ -23325,9 +23325,9 @@
       <c r="BC61" s="18"/>
     </row>
     <row r="62" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A62" s="185"/>
-      <c r="B62" s="186"/>
-      <c r="C62" s="187"/>
+      <c r="A62" s="161"/>
+      <c r="B62" s="162"/>
+      <c r="C62" s="163"/>
       <c r="D62" s="17"/>
       <c r="Q62" s="17"/>
       <c r="AD62" s="17"/>
@@ -23335,9 +23335,9 @@
       <c r="BC62" s="18"/>
     </row>
     <row r="63" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A63" s="185"/>
-      <c r="B63" s="186"/>
-      <c r="C63" s="187"/>
+      <c r="A63" s="161"/>
+      <c r="B63" s="162"/>
+      <c r="C63" s="163"/>
       <c r="D63" s="17"/>
       <c r="Q63" s="17"/>
       <c r="AD63" s="17"/>
@@ -23345,9 +23345,9 @@
       <c r="BC63" s="18"/>
     </row>
     <row r="64" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A64" s="185"/>
-      <c r="B64" s="186"/>
-      <c r="C64" s="187"/>
+      <c r="A64" s="161"/>
+      <c r="B64" s="162"/>
+      <c r="C64" s="163"/>
       <c r="D64" s="17"/>
       <c r="Q64" s="17"/>
       <c r="AD64" s="17"/>
@@ -23355,9 +23355,9 @@
       <c r="BC64" s="18"/>
     </row>
     <row r="65" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A65" s="185"/>
-      <c r="B65" s="186"/>
-      <c r="C65" s="187"/>
+      <c r="A65" s="161"/>
+      <c r="B65" s="162"/>
+      <c r="C65" s="163"/>
       <c r="D65" s="17"/>
       <c r="Q65" s="17"/>
       <c r="AD65" s="17"/>
@@ -23365,9 +23365,9 @@
       <c r="BC65" s="18"/>
     </row>
     <row r="66" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A66" s="185"/>
-      <c r="B66" s="186"/>
-      <c r="C66" s="187"/>
+      <c r="A66" s="161"/>
+      <c r="B66" s="162"/>
+      <c r="C66" s="163"/>
       <c r="D66" s="17"/>
       <c r="Q66" s="17"/>
       <c r="AD66" s="17"/>
@@ -23375,9 +23375,9 @@
       <c r="BC66" s="18"/>
     </row>
     <row r="67" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A67" s="185"/>
-      <c r="B67" s="186"/>
-      <c r="C67" s="187"/>
+      <c r="A67" s="161"/>
+      <c r="B67" s="162"/>
+      <c r="C67" s="163"/>
       <c r="D67" s="17"/>
       <c r="Q67" s="17"/>
       <c r="AD67" s="17"/>
@@ -23385,9 +23385,9 @@
       <c r="BC67" s="18"/>
     </row>
     <row r="68" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A68" s="185"/>
-      <c r="B68" s="186"/>
-      <c r="C68" s="187"/>
+      <c r="A68" s="161"/>
+      <c r="B68" s="162"/>
+      <c r="C68" s="163"/>
       <c r="D68" s="17"/>
       <c r="Q68" s="17"/>
       <c r="AD68" s="17"/>
@@ -23395,9 +23395,9 @@
       <c r="BC68" s="18"/>
     </row>
     <row r="69" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A69" s="185"/>
-      <c r="B69" s="186"/>
-      <c r="C69" s="187"/>
+      <c r="A69" s="161"/>
+      <c r="B69" s="162"/>
+      <c r="C69" s="163"/>
       <c r="D69" s="17"/>
       <c r="Q69" s="17"/>
       <c r="AD69" s="17"/>
@@ -23405,9 +23405,9 @@
       <c r="BC69" s="18"/>
     </row>
     <row r="70" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A70" s="185"/>
-      <c r="B70" s="186"/>
-      <c r="C70" s="187"/>
+      <c r="A70" s="161"/>
+      <c r="B70" s="162"/>
+      <c r="C70" s="163"/>
       <c r="D70" s="17"/>
       <c r="Q70" s="17"/>
       <c r="AD70" s="17"/>
@@ -23415,9 +23415,9 @@
       <c r="BC70" s="18"/>
     </row>
     <row r="71" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A71" s="185"/>
-      <c r="B71" s="186"/>
-      <c r="C71" s="187"/>
+      <c r="A71" s="161"/>
+      <c r="B71" s="162"/>
+      <c r="C71" s="163"/>
       <c r="D71" s="17"/>
       <c r="Q71" s="17"/>
       <c r="AD71" s="17"/>
@@ -23425,9 +23425,9 @@
       <c r="BC71" s="18"/>
     </row>
     <row r="72" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A72" s="185"/>
-      <c r="B72" s="186"/>
-      <c r="C72" s="187"/>
+      <c r="A72" s="161"/>
+      <c r="B72" s="162"/>
+      <c r="C72" s="163"/>
       <c r="D72" s="17"/>
       <c r="Q72" s="17"/>
       <c r="AD72" s="17"/>
@@ -23435,9 +23435,9 @@
       <c r="BC72" s="18"/>
     </row>
     <row r="73" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A73" s="185"/>
-      <c r="B73" s="186"/>
-      <c r="C73" s="187"/>
+      <c r="A73" s="161"/>
+      <c r="B73" s="162"/>
+      <c r="C73" s="163"/>
       <c r="D73" s="17"/>
       <c r="Q73" s="17"/>
       <c r="AD73" s="17"/>
@@ -23451,9 +23451,9 @@
       <c r="BC73" s="18"/>
     </row>
     <row r="74" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A74" s="185"/>
-      <c r="B74" s="186"/>
-      <c r="C74" s="187"/>
+      <c r="A74" s="161"/>
+      <c r="B74" s="162"/>
+      <c r="C74" s="163"/>
       <c r="D74" s="17"/>
       <c r="Q74" s="17"/>
       <c r="AD74" s="17"/>
@@ -23461,9 +23461,9 @@
       <c r="BC74" s="18"/>
     </row>
     <row r="75" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A75" s="185"/>
-      <c r="B75" s="186"/>
-      <c r="C75" s="187"/>
+      <c r="A75" s="161"/>
+      <c r="B75" s="162"/>
+      <c r="C75" s="163"/>
       <c r="D75" s="17"/>
       <c r="Q75" s="17"/>
       <c r="AD75" s="17"/>
@@ -23471,9 +23471,9 @@
       <c r="BC75" s="18"/>
     </row>
     <row r="76" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A76" s="185"/>
-      <c r="B76" s="186"/>
-      <c r="C76" s="187"/>
+      <c r="A76" s="161"/>
+      <c r="B76" s="162"/>
+      <c r="C76" s="163"/>
       <c r="D76" s="17"/>
       <c r="Q76" s="17"/>
       <c r="AD76" s="17"/>
@@ -23481,9 +23481,9 @@
       <c r="BC76" s="18"/>
     </row>
     <row r="77" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A77" s="185"/>
-      <c r="B77" s="186"/>
-      <c r="C77" s="187"/>
+      <c r="A77" s="161"/>
+      <c r="B77" s="162"/>
+      <c r="C77" s="163"/>
       <c r="D77" s="17"/>
       <c r="Q77" s="17"/>
       <c r="AD77" s="17"/>
@@ -23491,9 +23491,9 @@
       <c r="BC77" s="18"/>
     </row>
     <row r="78" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A78" s="185"/>
-      <c r="B78" s="186"/>
-      <c r="C78" s="187"/>
+      <c r="A78" s="161"/>
+      <c r="B78" s="162"/>
+      <c r="C78" s="163"/>
       <c r="D78" s="17"/>
       <c r="Q78" s="17"/>
       <c r="AD78" s="17"/>
@@ -23504,9 +23504,9 @@
       <c r="BC78" s="18"/>
     </row>
     <row r="79" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A79" s="185"/>
-      <c r="B79" s="186"/>
-      <c r="C79" s="187"/>
+      <c r="A79" s="161"/>
+      <c r="B79" s="162"/>
+      <c r="C79" s="163"/>
       <c r="D79" s="17"/>
       <c r="Q79" s="17"/>
       <c r="AD79" s="17"/>
@@ -23514,9 +23514,9 @@
       <c r="BC79" s="18"/>
     </row>
     <row r="80" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A80" s="185"/>
-      <c r="B80" s="186"/>
-      <c r="C80" s="187"/>
+      <c r="A80" s="161"/>
+      <c r="B80" s="162"/>
+      <c r="C80" s="163"/>
       <c r="D80" s="17"/>
       <c r="Q80" s="17"/>
       <c r="AD80" s="17"/>
@@ -23525,9 +23525,9 @@
       <c r="BC80" s="18"/>
     </row>
     <row r="81" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A81" s="185"/>
-      <c r="B81" s="186"/>
-      <c r="C81" s="187"/>
+      <c r="A81" s="161"/>
+      <c r="B81" s="162"/>
+      <c r="C81" s="163"/>
       <c r="D81" s="17"/>
       <c r="Q81" s="17"/>
       <c r="AD81" s="17"/>
@@ -23536,9 +23536,9 @@
       <c r="BC81" s="18"/>
     </row>
     <row r="82" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A82" s="185"/>
-      <c r="B82" s="186"/>
-      <c r="C82" s="187"/>
+      <c r="A82" s="161"/>
+      <c r="B82" s="162"/>
+      <c r="C82" s="163"/>
       <c r="D82" s="17"/>
       <c r="Q82" s="17"/>
       <c r="AD82" s="17"/>
@@ -23547,9 +23547,9 @@
       <c r="BC82" s="18"/>
     </row>
     <row r="83" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A83" s="185"/>
-      <c r="B83" s="186"/>
-      <c r="C83" s="187"/>
+      <c r="A83" s="161"/>
+      <c r="B83" s="162"/>
+      <c r="C83" s="163"/>
       <c r="D83" s="17"/>
       <c r="Q83" s="17"/>
       <c r="AD83" s="17"/>
@@ -23558,9 +23558,9 @@
       <c r="BC83" s="18"/>
     </row>
     <row r="84" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A84" s="185"/>
-      <c r="B84" s="186"/>
-      <c r="C84" s="187"/>
+      <c r="A84" s="161"/>
+      <c r="B84" s="162"/>
+      <c r="C84" s="163"/>
       <c r="D84" s="17"/>
       <c r="Q84" s="17"/>
       <c r="AD84" s="17"/>
@@ -23568,9 +23568,9 @@
       <c r="BC84" s="18"/>
     </row>
     <row r="85" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A85" s="185"/>
-      <c r="B85" s="186"/>
-      <c r="C85" s="187"/>
+      <c r="A85" s="161"/>
+      <c r="B85" s="162"/>
+      <c r="C85" s="163"/>
       <c r="D85" s="19"/>
       <c r="E85" s="20"/>
       <c r="F85" s="20"/>
@@ -23625,48 +23625,42 @@
       <c r="BC85" s="21"/>
     </row>
     <row r="86" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A86" s="185"/>
-      <c r="B86" s="186"/>
-      <c r="C86" s="187"/>
+      <c r="A86" s="161"/>
+      <c r="B86" s="162"/>
+      <c r="C86" s="163"/>
     </row>
     <row r="87" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A87" s="185"/>
-      <c r="B87" s="186"/>
-      <c r="C87" s="187"/>
+      <c r="A87" s="161"/>
+      <c r="B87" s="162"/>
+      <c r="C87" s="163"/>
     </row>
     <row r="88" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A88" s="185"/>
-      <c r="B88" s="186"/>
-      <c r="C88" s="187"/>
+      <c r="A88" s="161"/>
+      <c r="B88" s="162"/>
+      <c r="C88" s="163"/>
     </row>
     <row r="89" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A89" s="185"/>
-      <c r="B89" s="186"/>
-      <c r="C89" s="187"/>
+      <c r="A89" s="161"/>
+      <c r="B89" s="162"/>
+      <c r="C89" s="163"/>
     </row>
     <row r="90" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A90" s="185"/>
-      <c r="B90" s="186"/>
-      <c r="C90" s="187"/>
+      <c r="A90" s="161"/>
+      <c r="B90" s="162"/>
+      <c r="C90" s="163"/>
     </row>
     <row r="91" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A91" s="185"/>
-      <c r="B91" s="186"/>
-      <c r="C91" s="187"/>
+      <c r="A91" s="161"/>
+      <c r="B91" s="162"/>
+      <c r="C91" s="163"/>
     </row>
     <row r="92" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A92" s="188"/>
-      <c r="B92" s="189"/>
-      <c r="C92" s="190"/>
+      <c r="A92" s="164"/>
+      <c r="B92" s="165"/>
+      <c r="C92" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A29:C44"/>
-    <mergeCell ref="A45:C92"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:P5"/>
-    <mergeCell ref="Q4:AC5"/>
-    <mergeCell ref="D50:P51"/>
     <mergeCell ref="AD4:AP5"/>
     <mergeCell ref="AQ4:BC5"/>
     <mergeCell ref="A22:C28"/>
@@ -23683,6 +23677,12 @@
     <mergeCell ref="G1:N1"/>
     <mergeCell ref="O1:AE1"/>
     <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="A29:C44"/>
+    <mergeCell ref="A45:C92"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:P5"/>
+    <mergeCell ref="Q4:AC5"/>
+    <mergeCell ref="D50:P51"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23898,12 +23898,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="O1" sqref="O1"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
